--- a/Dataset-Numbers.xlsx
+++ b/Dataset-Numbers.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27719"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC3DB0ED-1C10-418D-B674-EEDC1DBD1412}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAD3B8B1-0FF5-4BB0-8DCE-8DC4B17BED7A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,6 +105,1908 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:rPr>
+              <a:t>Data Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="45D65A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-866C-4534-8172-2392E6D89432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-866C-4534-8172-2392E6D89432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Worst Case</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4D93D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-866C-4534-8172-2392E6D89432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="246"/>
+        <c:axId val="65455111"/>
+        <c:axId val="65457159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65455111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65457159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65457159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="hh:mm;@" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65455111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84549040046689006"/>
+          <c:y val="3.234382826303666E-2"/>
+          <c:w val="0.15450967847769029"/>
+          <c:h val="0.2111529658792651"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Comic Sans MS"/>
+              <a:ea typeface="Comic Sans MS"/>
+              <a:cs typeface="Comic Sans MS"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2292A5C3-1F7B-3412-4161-6EC5F85A640B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87DC6B2A-D77D-4682-89BA-2DDE9768B218}" name="Table1" displayName="Table1" ref="A1:C100" totalsRowShown="0">
+  <autoFilter ref="A1:C100" xr:uid="{87DC6B2A-D77D-4682-89BA-2DDE9768B218}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FF03C3CC-BD48-4E9E-91B6-F260CBE9A828}" name="Best Case" dataDxfId="1">
+      <calculatedColumnFormula>4+A1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C1A70F23-76B2-4C58-A4A3-4F83F226DDA3}" name="Average Case" dataDxfId="0">
+      <calculatedColumnFormula>RANDBETWEEN(1,1000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{37E00BB8-ABDA-4A41-B786-879E3B53FFC0}" name="Worst Case">
+      <calculatedColumnFormula>C1-4</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,7 +2328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -446,7 +2357,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>864</v>
+        <v>531</v>
       </c>
       <c r="C2">
         <v>400</v>
@@ -459,7 +2370,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>765</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <f>A100-4</f>
@@ -473,7 +2384,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>513</v>
+        <v>227</v>
       </c>
       <c r="C4">
         <f>C3-4</f>
@@ -487,7 +2398,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>557</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="1">C4-4</f>
@@ -501,7 +2412,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>114</v>
+        <v>705</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -515,7 +2426,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -529,7 +2440,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>399</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -543,7 +2454,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>527</v>
+        <v>237</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -557,7 +2468,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>644</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -571,7 +2482,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>523</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -585,7 +2496,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>634</v>
+        <v>254</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -599,7 +2510,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -613,7 +2524,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>609</v>
+        <v>998</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -627,7 +2538,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>387</v>
+        <v>997</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -641,7 +2552,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>821</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -655,7 +2566,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>514</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -669,7 +2580,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>679</v>
+        <v>855</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -683,7 +2594,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -697,7 +2608,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>553</v>
+        <v>253</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -711,7 +2622,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>826</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -725,7 +2636,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>852</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -739,7 +2650,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>696</v>
+        <v>854</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -753,7 +2664,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>960</v>
+        <v>447</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -767,7 +2678,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>578</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -781,7 +2692,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -795,7 +2706,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
+        <v>769</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -809,7 +2720,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>488</v>
+        <v>707</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -823,7 +2734,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>718</v>
+        <v>618</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -837,7 +2748,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>956</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -851,7 +2762,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>414</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -865,7 +2776,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -879,7 +2790,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>950</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -893,7 +2804,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -907,7 +2818,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>724</v>
+        <v>801</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
@@ -921,7 +2832,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
@@ -935,7 +2846,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>729</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
@@ -949,7 +2860,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>314</v>
+        <v>751</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
@@ -963,7 +2874,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
@@ -977,7 +2888,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>931</v>
+        <v>564</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
@@ -991,7 +2902,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>627</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
@@ -1005,7 +2916,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>980</v>
+        <v>742</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
@@ -1019,7 +2930,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>758</v>
+        <v>655</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
@@ -1033,7 +2944,7 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>882</v>
+        <v>999</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
@@ -1047,7 +2958,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>839</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
@@ -1061,7 +2972,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>707</v>
+        <v>131</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
@@ -1075,7 +2986,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>581</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
@@ -1089,7 +3000,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>632</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
@@ -1103,7 +3014,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>663</v>
+        <v>256</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
@@ -1117,7 +3028,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>440</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
@@ -1131,7 +3042,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
@@ -1145,7 +3056,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
@@ -1159,7 +3070,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>854</v>
+        <v>604</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
@@ -1173,7 +3084,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>350</v>
+        <v>884</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
@@ -1187,7 +3098,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>825</v>
+        <v>775</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
@@ -1201,7 +3112,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
@@ -1215,7 +3126,7 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>787</v>
+        <v>219</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
@@ -1229,7 +3140,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>972</v>
+        <v>895</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
@@ -1243,7 +3154,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>462</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
@@ -1257,7 +3168,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
@@ -1271,7 +3182,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
@@ -1285,7 +3196,7 @@
       </c>
       <c r="B62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>234</v>
+        <v>643</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
@@ -1299,7 +3210,7 @@
       </c>
       <c r="B63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>112</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
@@ -1313,7 +3224,7 @@
       </c>
       <c r="B64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>867</v>
+        <v>491</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
@@ -1327,7 +3238,7 @@
       </c>
       <c r="B65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>563</v>
+        <v>931</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
@@ -1341,7 +3252,7 @@
       </c>
       <c r="B66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>921</v>
+        <v>654</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -1355,7 +3266,7 @@
       </c>
       <c r="B67" s="1">
         <f t="shared" ref="B67:B100" ca="1" si="2">RANDBETWEEN(1,1000)</f>
-        <v>612</v>
+        <v>890</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -1369,7 +3280,7 @@
       </c>
       <c r="B68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>307</v>
+        <v>95</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -1383,7 +3294,7 @@
       </c>
       <c r="B69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>322</v>
+        <v>403</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C100" si="3">C68-4</f>
@@ -1397,7 +3308,7 @@
       </c>
       <c r="B70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>973</v>
+        <v>118</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
@@ -1411,7 +3322,7 @@
       </c>
       <c r="B71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
@@ -1425,7 +3336,7 @@
       </c>
       <c r="B72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
@@ -1439,7 +3350,7 @@
       </c>
       <c r="B73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>989</v>
+        <v>662</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
@@ -1453,7 +3364,7 @@
       </c>
       <c r="B74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
@@ -1467,7 +3378,7 @@
       </c>
       <c r="B75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>536</v>
+        <v>430</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
@@ -1481,7 +3392,7 @@
       </c>
       <c r="B76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>854</v>
+        <v>419</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
@@ -1495,7 +3406,7 @@
       </c>
       <c r="B77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>800</v>
+        <v>974</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
@@ -1509,7 +3420,7 @@
       </c>
       <c r="B78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>802</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
@@ -1523,7 +3434,7 @@
       </c>
       <c r="B79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>666</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
@@ -1537,7 +3448,7 @@
       </c>
       <c r="B80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
@@ -1551,7 +3462,7 @@
       </c>
       <c r="B81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
@@ -1565,7 +3476,7 @@
       </c>
       <c r="B82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>347</v>
+        <v>544</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
@@ -1579,7 +3490,7 @@
       </c>
       <c r="B83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>541</v>
+        <v>952</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
@@ -1593,7 +3504,7 @@
       </c>
       <c r="B84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>877</v>
+        <v>452</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
@@ -1607,7 +3518,7 @@
       </c>
       <c r="B85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>431</v>
+        <v>102</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
@@ -1621,7 +3532,7 @@
       </c>
       <c r="B86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>315</v>
+        <v>209</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
@@ -1635,7 +3546,7 @@
       </c>
       <c r="B87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>719</v>
+        <v>798</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
@@ -1649,7 +3560,7 @@
       </c>
       <c r="B88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
+        <v>546</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
@@ -1663,7 +3574,7 @@
       </c>
       <c r="B89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
@@ -1677,7 +3588,7 @@
       </c>
       <c r="B90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>865</v>
+        <v>785</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
@@ -1691,7 +3602,7 @@
       </c>
       <c r="B91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>817</v>
+        <v>653</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
@@ -1705,7 +3616,7 @@
       </c>
       <c r="B92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>841</v>
+        <v>230</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
@@ -1719,7 +3630,7 @@
       </c>
       <c r="B93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>797</v>
+        <v>276</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
@@ -1733,7 +3644,7 @@
       </c>
       <c r="B94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>754</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
@@ -1747,7 +3658,7 @@
       </c>
       <c r="B95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>974</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
@@ -1761,7 +3672,7 @@
       </c>
       <c r="B96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
@@ -1775,7 +3686,7 @@
       </c>
       <c r="B97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>374</v>
+        <v>660</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
@@ -1789,7 +3700,7 @@
       </c>
       <c r="B98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>569</v>
+        <v>110</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
@@ -1803,7 +3714,7 @@
       </c>
       <c r="B99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>739</v>
+        <v>392</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
@@ -1817,7 +3728,7 @@
       </c>
       <c r="B100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>796</v>
+        <v>255</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
@@ -1832,5 +3743,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576 B2:B100" xr:uid="{F22401C8-C2E8-41BE-B096-8151798F649A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>